--- a/earlywarning-pom/earlywarning-config/src/baf-instances/72_Inst_Customer_Unit_SME_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/72_Inst_Customer_Unit_SME_RETAIL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alberto.collu\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="210" yWindow="450" windowWidth="28440" windowHeight="14235" activeTab="2"/>
+    <workbookView xWindow="210" yWindow="450" windowWidth="28440" windowHeight="14235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Customer_Unit" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="41">
   <si>
     <t>Customer_Unit</t>
   </si>
@@ -170,24 +170,12 @@
     <t>Source_tableName</t>
   </si>
   <si>
-    <t>IT_RETAIL</t>
-  </si>
-  <si>
     <t>SEWSA0D</t>
   </si>
   <si>
     <t>SME Retail</t>
   </si>
   <si>
-    <t>CUSTOMER_ANALYSIS_UNIT_SME_RETAIL</t>
-  </si>
-  <si>
-    <t>OUTPUT_WEB_SME_RE</t>
-  </si>
-  <si>
-    <t>SME_RE_CUSTOMER_TABLE</t>
-  </si>
-  <si>
     <t>SME_RETAIL-COUNTERPARTY_SME_RETAIL</t>
   </si>
   <si>
@@ -195,12 +183,21 @@
   </si>
   <si>
     <t>COUNTERPARTY_SME_RETAIL</t>
+  </si>
+  <si>
+    <t>SME_CUSTOMER_TABLE</t>
+  </si>
+  <si>
+    <t>OUTPUT_WEB_SME</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ANALYSIS_UNIT_SME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -289,7 +286,7 @@
         <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -338,7 +335,7 @@
         <xdr:cNvPr id="2" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -387,7 +384,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -441,7 +438,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -495,7 +492,7 @@
         <xdr:cNvPr id="5" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -549,7 +546,7 @@
         <xdr:cNvPr id="6" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -603,7 +600,7 @@
         <xdr:cNvPr id="7" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -657,7 +654,7 @@
         <xdr:cNvPr id="8" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -711,7 +708,7 @@
         <xdr:cNvPr id="9" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -765,7 +762,7 @@
         <xdr:cNvPr id="10" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -819,7 +816,7 @@
         <xdr:cNvPr id="11" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -873,7 +870,7 @@
         <xdr:cNvPr id="12" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -927,7 +924,7 @@
         <xdr:cNvPr id="13" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -981,7 +978,7 @@
         <xdr:cNvPr id="14" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1035,7 +1032,7 @@
         <xdr:cNvPr id="15" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC251CC-7CA7-445D-AA4E-14C5A3EC675E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC251CC-7CA7-445D-AA4E-14C5A3EC675E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1089,10 +1086,106 @@
         <xdr:cNvPr id="16" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7AAE5B2-7446-4100-970E-ECB70806EE55}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7AAE5B2-7446-4100-970E-ECB70806EE55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9286875" cy="9705975"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9286875" cy="9705975"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1148,7 +1241,7 @@
         <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1290,7 @@
         <xdr:cNvPr id="2" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1246,7 +1339,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1300,7 +1393,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1447,7 @@
         <xdr:cNvPr id="5" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1501,7 @@
         <xdr:cNvPr id="6" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1555,7 @@
         <xdr:cNvPr id="7" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,7 +1609,7 @@
         <xdr:cNvPr id="8" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1570,7 +1663,7 @@
         <xdr:cNvPr id="9" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1624,7 +1717,7 @@
         <xdr:cNvPr id="10" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1678,7 +1771,7 @@
         <xdr:cNvPr id="11" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1825,7 @@
         <xdr:cNvPr id="12" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1879,7 @@
         <xdr:cNvPr id="13" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,7 +1933,7 @@
         <xdr:cNvPr id="14" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1894,7 +1987,7 @@
         <xdr:cNvPr id="15" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F80EC57-E85B-469B-9334-173FAFD7E476}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F80EC57-E85B-469B-9334-173FAFD7E476}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,10 +2041,106 @@
         <xdr:cNvPr id="16" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC5545E5-E647-4E8F-9E0F-0AC621BA82A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC5545E5-E647-4E8F-9E0F-0AC621BA82A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13020675" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13020675" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2063,23 +2252,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2115,23 +2287,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2310,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,19 +2534,19 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
         <v>38</v>
@@ -2408,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,19 +2610,19 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2481,7 +2636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
